--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3e-Plxnd1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Sema3e-Plxnd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.116622709901312</v>
+        <v>0.1193766666666667</v>
       </c>
       <c r="H2">
-        <v>0.116622709901312</v>
+        <v>0.35813</v>
       </c>
       <c r="I2">
-        <v>0.06691025361220378</v>
+        <v>0.06523701312008452</v>
       </c>
       <c r="J2">
-        <v>0.06691025361220378</v>
+        <v>0.06523701312008452</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>66.5673407076866</v>
+        <v>87.82520466666666</v>
       </c>
       <c r="N2">
-        <v>66.5673407076866</v>
+        <v>263.475614</v>
       </c>
       <c r="O2">
-        <v>0.3585943151292527</v>
+        <v>0.4113681414249258</v>
       </c>
       <c r="P2">
-        <v>0.3585943151292527</v>
+        <v>0.4113681414249258</v>
       </c>
       <c r="Q2">
-        <v>7.763263664254331</v>
+        <v>10.48428018242445</v>
       </c>
       <c r="R2">
-        <v>7.763263664254331</v>
+        <v>94.35852164182</v>
       </c>
       <c r="S2">
-        <v>0.02399363656919282</v>
+        <v>0.02683642883932267</v>
       </c>
       <c r="T2">
-        <v>0.02399363656919282</v>
+        <v>0.02683642883932267</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.116622709901312</v>
+        <v>0.1193766666666667</v>
       </c>
       <c r="H3">
-        <v>0.116622709901312</v>
+        <v>0.35813</v>
       </c>
       <c r="I3">
-        <v>0.06691025361220378</v>
+        <v>0.06523701312008452</v>
       </c>
       <c r="J3">
-        <v>0.06691025361220378</v>
+        <v>0.06523701312008452</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.2935938373708</v>
+        <v>22.364335</v>
       </c>
       <c r="N3">
-        <v>22.2935938373708</v>
+        <v>67.09300499999999</v>
       </c>
       <c r="O3">
-        <v>0.1200942673823621</v>
+        <v>0.1047532420570173</v>
       </c>
       <c r="P3">
-        <v>0.1200942673823621</v>
+        <v>0.1047532420570173</v>
       </c>
       <c r="Q3">
-        <v>2.599939326753372</v>
+        <v>2.669779764516667</v>
       </c>
       <c r="R3">
-        <v>2.599939326753372</v>
+        <v>24.02801788065</v>
       </c>
       <c r="S3">
-        <v>0.008035537887925659</v>
+        <v>0.006833788626445026</v>
       </c>
       <c r="T3">
-        <v>0.008035537887925659</v>
+        <v>0.006833788626445025</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.116622709901312</v>
+        <v>0.1193766666666667</v>
       </c>
       <c r="H4">
-        <v>0.116622709901312</v>
+        <v>0.35813</v>
       </c>
       <c r="I4">
-        <v>0.06691025361220378</v>
+        <v>0.06523701312008452</v>
       </c>
       <c r="J4">
-        <v>0.06691025361220378</v>
+        <v>0.06523701312008452</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.9171610286923</v>
+        <v>32.00656633333333</v>
       </c>
       <c r="N4">
-        <v>28.9171610286923</v>
+        <v>96.019699</v>
       </c>
       <c r="O4">
-        <v>0.1557750308834081</v>
+        <v>0.1499168918069617</v>
       </c>
       <c r="P4">
-        <v>0.1557750308834081</v>
+        <v>0.1499168918069617</v>
       </c>
       <c r="Q4">
-        <v>3.372397681818707</v>
+        <v>3.820837200318889</v>
       </c>
       <c r="R4">
-        <v>3.372397681818707</v>
+        <v>34.38753480287</v>
       </c>
       <c r="S4">
-        <v>0.01042294682285771</v>
+        <v>0.009780130237733053</v>
       </c>
       <c r="T4">
-        <v>0.01042294682285771</v>
+        <v>0.009780130237733053</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.116622709901312</v>
+        <v>0.1193766666666667</v>
       </c>
       <c r="H5">
-        <v>0.116622709901312</v>
+        <v>0.35813</v>
       </c>
       <c r="I5">
-        <v>0.06691025361220378</v>
+        <v>0.06523701312008452</v>
       </c>
       <c r="J5">
-        <v>0.06691025361220378</v>
+        <v>0.06523701312008452</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.1340634137603</v>
+        <v>36.24501033333333</v>
       </c>
       <c r="N5">
-        <v>36.1340634137603</v>
+        <v>108.735031</v>
       </c>
       <c r="O5">
-        <v>0.1946520558721696</v>
+        <v>0.1697695165452834</v>
       </c>
       <c r="P5">
-        <v>0.1946520558721696</v>
+        <v>0.1697695165452834</v>
       </c>
       <c r="Q5">
-        <v>4.214052395058579</v>
+        <v>4.326808516892222</v>
       </c>
       <c r="R5">
-        <v>4.214052395058579</v>
+        <v>38.94127665203001</v>
       </c>
       <c r="S5">
-        <v>0.01302421842454373</v>
+        <v>0.01107525617825506</v>
       </c>
       <c r="T5">
-        <v>0.01302421842454373</v>
+        <v>0.01107525617825506</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.116622709901312</v>
+        <v>0.1193766666666667</v>
       </c>
       <c r="H6">
-        <v>0.116622709901312</v>
+        <v>0.35813</v>
       </c>
       <c r="I6">
-        <v>0.06691025361220378</v>
+        <v>0.06523701312008452</v>
       </c>
       <c r="J6">
-        <v>0.06691025361220378</v>
+        <v>0.06523701312008452</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.88231356755245</v>
+        <v>7.206563333333333</v>
       </c>
       <c r="N6">
-        <v>6.88231356755245</v>
+        <v>21.61969</v>
       </c>
       <c r="O6">
-        <v>0.03707461487906872</v>
+        <v>0.03375512275486358</v>
       </c>
       <c r="P6">
-        <v>0.03707461487906872</v>
+        <v>0.03375512275486358</v>
       </c>
       <c r="Q6">
-        <v>0.8026340586385331</v>
+        <v>0.8602955088555555</v>
       </c>
       <c r="R6">
-        <v>0.8026340586385331</v>
+        <v>7.7426595797</v>
       </c>
       <c r="S6">
-        <v>0.002480671884133272</v>
+        <v>0.002202083386029099</v>
       </c>
       <c r="T6">
-        <v>0.002480671884133272</v>
+        <v>0.002202083386029099</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.116622709901312</v>
+        <v>0.1193766666666667</v>
       </c>
       <c r="H7">
-        <v>0.116622709901312</v>
+        <v>0.35813</v>
       </c>
       <c r="I7">
-        <v>0.06691025361220378</v>
+        <v>0.06523701312008452</v>
       </c>
       <c r="J7">
-        <v>0.06691025361220378</v>
+        <v>0.06523701312008452</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>24.8396490670076</v>
+        <v>27.84771733333333</v>
       </c>
       <c r="N7">
-        <v>24.8396490670076</v>
+        <v>83.54315199999999</v>
       </c>
       <c r="O7">
-        <v>0.1338097158537389</v>
+        <v>0.1304370854109484</v>
       </c>
       <c r="P7">
-        <v>0.1338097158537389</v>
+        <v>0.1304370854109484</v>
       </c>
       <c r="Q7">
-        <v>2.896867187192023</v>
+        <v>3.324367669528889</v>
       </c>
       <c r="R7">
-        <v>2.896867187192023</v>
+        <v>29.91930902576</v>
       </c>
       <c r="S7">
-        <v>0.008953242023550592</v>
+        <v>0.008509325852299627</v>
       </c>
       <c r="T7">
-        <v>0.008953242023550592</v>
+        <v>0.008509325852299625</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>1.62634945961444</v>
+        <v>0.003650666666666667</v>
       </c>
       <c r="H8">
-        <v>1.62634945961444</v>
+        <v>0.010952</v>
       </c>
       <c r="I8">
-        <v>0.9330897463877963</v>
+        <v>0.001995017920004372</v>
       </c>
       <c r="J8">
-        <v>0.9330897463877963</v>
+        <v>0.001995017920004372</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>66.5673407076866</v>
+        <v>87.82520466666666</v>
       </c>
       <c r="N8">
-        <v>66.5673407076866</v>
+        <v>263.475614</v>
       </c>
       <c r="O8">
-        <v>0.3585943151292527</v>
+        <v>0.4113681414249258</v>
       </c>
       <c r="P8">
-        <v>0.3585943151292527</v>
+        <v>0.4113681414249258</v>
       </c>
       <c r="Q8">
-        <v>108.2617585879164</v>
+        <v>0.3206205471697778</v>
       </c>
       <c r="R8">
-        <v>108.2617585879164</v>
+        <v>2.885584924528</v>
       </c>
       <c r="S8">
-        <v>0.3346006785600599</v>
+        <v>0.0008206868138616196</v>
       </c>
       <c r="T8">
-        <v>0.3346006785600599</v>
+        <v>0.0008206868138616196</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -974,49 +974,49 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>1.62634945961444</v>
+        <v>0.003650666666666667</v>
       </c>
       <c r="H9">
-        <v>1.62634945961444</v>
+        <v>0.010952</v>
       </c>
       <c r="I9">
-        <v>0.9330897463877963</v>
+        <v>0.001995017920004372</v>
       </c>
       <c r="J9">
-        <v>0.9330897463877963</v>
+        <v>0.001995017920004372</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.2935938373708</v>
+        <v>22.364335</v>
       </c>
       <c r="N9">
-        <v>22.2935938373708</v>
+        <v>67.09300499999999</v>
       </c>
       <c r="O9">
-        <v>0.1200942673823621</v>
+        <v>0.1047532420570173</v>
       </c>
       <c r="P9">
-        <v>0.1200942673823621</v>
+        <v>0.1047532420570173</v>
       </c>
       <c r="Q9">
-        <v>36.25717429027181</v>
+        <v>0.08164473230666666</v>
       </c>
       <c r="R9">
-        <v>36.25717429027181</v>
+        <v>0.7348025907599999</v>
       </c>
       <c r="S9">
-        <v>0.1120587294944364</v>
+        <v>0.0002089845950823051</v>
       </c>
       <c r="T9">
-        <v>0.1120587294944364</v>
+        <v>0.0002089845950823051</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>1.62634945961444</v>
+        <v>0.003650666666666667</v>
       </c>
       <c r="H10">
-        <v>1.62634945961444</v>
+        <v>0.010952</v>
       </c>
       <c r="I10">
-        <v>0.9330897463877963</v>
+        <v>0.001995017920004372</v>
       </c>
       <c r="J10">
-        <v>0.9330897463877963</v>
+        <v>0.001995017920004372</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.9171610286923</v>
+        <v>32.00656633333333</v>
       </c>
       <c r="N10">
-        <v>28.9171610286923</v>
+        <v>96.019699</v>
       </c>
       <c r="O10">
-        <v>0.1557750308834081</v>
+        <v>0.1499168918069617</v>
       </c>
       <c r="P10">
-        <v>0.1557750308834081</v>
+        <v>0.1499168918069617</v>
       </c>
       <c r="Q10">
-        <v>47.02940921259746</v>
+        <v>0.1168453048275555</v>
       </c>
       <c r="R10">
-        <v>47.02940921259746</v>
+        <v>1.051607743448</v>
       </c>
       <c r="S10">
-        <v>0.1453520840605504</v>
+        <v>0.0002990868856662452</v>
       </c>
       <c r="T10">
-        <v>0.1453520840605504</v>
+        <v>0.0002990868856662452</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>1.62634945961444</v>
+        <v>0.003650666666666667</v>
       </c>
       <c r="H11">
-        <v>1.62634945961444</v>
+        <v>0.010952</v>
       </c>
       <c r="I11">
-        <v>0.9330897463877963</v>
+        <v>0.001995017920004372</v>
       </c>
       <c r="J11">
-        <v>0.9330897463877963</v>
+        <v>0.001995017920004372</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>36.1340634137603</v>
+        <v>36.24501033333333</v>
       </c>
       <c r="N11">
-        <v>36.1340634137603</v>
+        <v>108.735031</v>
       </c>
       <c r="O11">
-        <v>0.1946520558721696</v>
+        <v>0.1697695165452834</v>
       </c>
       <c r="P11">
-        <v>0.1946520558721696</v>
+        <v>0.1697695165452834</v>
       </c>
       <c r="Q11">
-        <v>58.76661450664298</v>
+        <v>0.1323184510568889</v>
       </c>
       <c r="R11">
-        <v>58.76661450664298</v>
+        <v>1.190866059512</v>
       </c>
       <c r="S11">
-        <v>0.1816278374476259</v>
+        <v>0.000338693227778319</v>
       </c>
       <c r="T11">
-        <v>0.1816278374476259</v>
+        <v>0.000338693227778319</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -1160,49 +1160,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>1.62634945961444</v>
+        <v>0.003650666666666667</v>
       </c>
       <c r="H12">
-        <v>1.62634945961444</v>
+        <v>0.010952</v>
       </c>
       <c r="I12">
-        <v>0.9330897463877963</v>
+        <v>0.001995017920004372</v>
       </c>
       <c r="J12">
-        <v>0.9330897463877963</v>
+        <v>0.001995017920004372</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.88231356755245</v>
+        <v>7.206563333333333</v>
       </c>
       <c r="N12">
-        <v>6.88231356755245</v>
+        <v>21.61969</v>
       </c>
       <c r="O12">
-        <v>0.03707461487906872</v>
+        <v>0.03375512275486358</v>
       </c>
       <c r="P12">
-        <v>0.03707461487906872</v>
+        <v>0.03375512275486358</v>
       </c>
       <c r="Q12">
-        <v>11.19304695148606</v>
+        <v>0.02630876054222222</v>
       </c>
       <c r="R12">
-        <v>11.19304695148606</v>
+        <v>0.23677884488</v>
       </c>
       <c r="S12">
-        <v>0.03459394299493545</v>
+        <v>6.734207478790018E-05</v>
       </c>
       <c r="T12">
-        <v>0.03459394299493545</v>
+        <v>6.734207478790018E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.003650666666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.010952</v>
+      </c>
+      <c r="I13">
+        <v>0.001995017920004372</v>
+      </c>
+      <c r="J13">
+        <v>0.001995017920004372</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>27.84771733333333</v>
+      </c>
+      <c r="N13">
+        <v>83.54315199999999</v>
+      </c>
+      <c r="O13">
+        <v>0.1304370854109484</v>
+      </c>
+      <c r="P13">
+        <v>0.1304370854109484</v>
+      </c>
+      <c r="Q13">
+        <v>0.1016627334115555</v>
+      </c>
+      <c r="R13">
+        <v>0.9149646007039999</v>
+      </c>
+      <c r="S13">
+        <v>0.0002602243228279829</v>
+      </c>
+      <c r="T13">
+        <v>0.0002602243228279828</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.706864333333334</v>
+      </c>
+      <c r="H14">
+        <v>5.120593</v>
+      </c>
+      <c r="I14">
+        <v>0.9327679689599111</v>
+      </c>
+      <c r="J14">
+        <v>0.9327679689599112</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>87.82520466666666</v>
+      </c>
+      <c r="N14">
+        <v>263.475614</v>
+      </c>
+      <c r="O14">
+        <v>0.4113681414249258</v>
+      </c>
+      <c r="P14">
+        <v>0.4113681414249258</v>
+      </c>
+      <c r="Q14">
+        <v>149.9057094132336</v>
+      </c>
+      <c r="R14">
+        <v>1349.151384719102</v>
+      </c>
+      <c r="S14">
+        <v>0.3837110257717415</v>
+      </c>
+      <c r="T14">
+        <v>0.3837110257717415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.706864333333334</v>
+      </c>
+      <c r="H15">
+        <v>5.120593</v>
+      </c>
+      <c r="I15">
+        <v>0.9327679689599111</v>
+      </c>
+      <c r="J15">
+        <v>0.9327679689599112</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>22.364335</v>
+      </c>
+      <c r="N15">
+        <v>67.09300499999999</v>
+      </c>
+      <c r="O15">
+        <v>0.1047532420570173</v>
+      </c>
+      <c r="P15">
+        <v>0.1047532420570173</v>
+      </c>
+      <c r="Q15">
+        <v>38.17288575021833</v>
+      </c>
+      <c r="R15">
+        <v>343.555971751965</v>
+      </c>
+      <c r="S15">
+        <v>0.09771046883548995</v>
+      </c>
+      <c r="T15">
+        <v>0.09771046883548995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.706864333333334</v>
+      </c>
+      <c r="H16">
+        <v>5.120593</v>
+      </c>
+      <c r="I16">
+        <v>0.9327679689599111</v>
+      </c>
+      <c r="J16">
+        <v>0.9327679689599112</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>32.00656633333333</v>
+      </c>
+      <c r="N16">
+        <v>96.019699</v>
+      </c>
+      <c r="O16">
+        <v>0.1499168918069617</v>
+      </c>
+      <c r="P16">
+        <v>0.1499168918069617</v>
+      </c>
+      <c r="Q16">
+        <v>54.63086650683412</v>
+      </c>
+      <c r="R16">
+        <v>491.6777985615071</v>
+      </c>
+      <c r="S16">
+        <v>0.1398376746835624</v>
+      </c>
+      <c r="T16">
+        <v>0.1398376746835624</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.62634945961444</v>
-      </c>
-      <c r="H13">
-        <v>1.62634945961444</v>
-      </c>
-      <c r="I13">
-        <v>0.9330897463877963</v>
-      </c>
-      <c r="J13">
-        <v>0.9330897463877963</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>24.8396490670076</v>
-      </c>
-      <c r="N13">
-        <v>24.8396490670076</v>
-      </c>
-      <c r="O13">
-        <v>0.1338097158537389</v>
-      </c>
-      <c r="P13">
-        <v>0.1338097158537389</v>
-      </c>
-      <c r="Q13">
-        <v>40.39794983714014</v>
-      </c>
-      <c r="R13">
-        <v>40.39794983714014</v>
-      </c>
-      <c r="S13">
-        <v>0.1248564738301883</v>
-      </c>
-      <c r="T13">
-        <v>0.1248564738301883</v>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.706864333333334</v>
+      </c>
+      <c r="H17">
+        <v>5.120593</v>
+      </c>
+      <c r="I17">
+        <v>0.9327679689599111</v>
+      </c>
+      <c r="J17">
+        <v>0.9327679689599112</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>36.24501033333333</v>
+      </c>
+      <c r="N17">
+        <v>108.735031</v>
+      </c>
+      <c r="O17">
+        <v>0.1697695165452834</v>
+      </c>
+      <c r="P17">
+        <v>0.1697695165452834</v>
+      </c>
+      <c r="Q17">
+        <v>61.86531539926479</v>
+      </c>
+      <c r="R17">
+        <v>556.7878385933831</v>
+      </c>
+      <c r="S17">
+        <v>0.15835556713925</v>
+      </c>
+      <c r="T17">
+        <v>0.15835556713925</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.706864333333334</v>
+      </c>
+      <c r="H18">
+        <v>5.120593</v>
+      </c>
+      <c r="I18">
+        <v>0.9327679689599111</v>
+      </c>
+      <c r="J18">
+        <v>0.9327679689599112</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>7.206563333333333</v>
+      </c>
+      <c r="N18">
+        <v>21.61969</v>
+      </c>
+      <c r="O18">
+        <v>0.03375512275486358</v>
+      </c>
+      <c r="P18">
+        <v>0.03375512275486358</v>
+      </c>
+      <c r="Q18">
+        <v>12.30062591957445</v>
+      </c>
+      <c r="R18">
+        <v>110.70563327617</v>
+      </c>
+      <c r="S18">
+        <v>0.03148569729404658</v>
+      </c>
+      <c r="T18">
+        <v>0.03148569729404659</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.706864333333334</v>
+      </c>
+      <c r="H19">
+        <v>5.120593</v>
+      </c>
+      <c r="I19">
+        <v>0.9327679689599111</v>
+      </c>
+      <c r="J19">
+        <v>0.9327679689599112</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>27.84771733333333</v>
+      </c>
+      <c r="N19">
+        <v>83.54315199999999</v>
+      </c>
+      <c r="O19">
+        <v>0.1304370854109484</v>
+      </c>
+      <c r="P19">
+        <v>0.1304370854109484</v>
+      </c>
+      <c r="Q19">
+        <v>47.53227548101511</v>
+      </c>
+      <c r="R19">
+        <v>427.790479329136</v>
+      </c>
+      <c r="S19">
+        <v>0.1216675352358208</v>
+      </c>
+      <c r="T19">
+        <v>0.1216675352358208</v>
       </c>
     </row>
   </sheetData>
